--- a/matrix2.xlsx
+++ b/matrix2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,36 @@
           <t>avn[m/s]</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISEvn</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYvn</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>PRANDTLNUMBERvn</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISECJ</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYCJ</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>PRANDTLNUMBERCJ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -585,6 +615,24 @@
       <c r="S2" t="n">
         <v>0</v>
       </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -646,6 +694,24 @@
       <c r="S3" t="n">
         <v>0</v>
       </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -707,6 +773,24 @@
       <c r="S4" t="n">
         <v>0</v>
       </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -768,6 +852,24 @@
       <c r="S5" t="n">
         <v>0</v>
       </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -831,6 +933,24 @@
       <c r="S6" t="n">
         <v>0</v>
       </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -892,6 +1012,24 @@
       <c r="S7" t="n">
         <v>0</v>
       </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -953,6 +1091,24 @@
       <c r="S8" t="n">
         <v>0</v>
       </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -960,8 +1116,10 @@
           <t>Hcj[KJ/kg]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H0[KJ/kg]</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1012,6 +1170,24 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1021,8 +1197,10 @@
           <t>Mcj[kg/kmol]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>M0[kg/kmol]</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1073,6 +1251,24 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,6 +1332,24 @@
       <c r="S11" t="n">
         <v>0</v>
       </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1145,12 +1359,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>M0[kg/kmol]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Mcj[kg/kmol]</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
@@ -1197,6 +1413,24 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1260,6 +1494,24 @@
       <c r="S13" t="n">
         <v>0</v>
       </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1269,17 +1521,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>M0[kg/kmol]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Mcj[kg/kmol]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>acj[m/s]</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -1323,6 +1577,24 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1334,7 +1606,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pcj[bar]</t>
+          <t>p0[bar]</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1386,6 +1658,24 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1395,11 +1685,15 @@
           <t>Tvn[K]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>γ0[-]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mcj[-]</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1447,6 +1741,24 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,6 +1824,24 @@
       <c r="S17" t="n">
         <v>0</v>
       </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1524,11 +1854,15 @@
           <t>γ0[-]</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mcj[-]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tvn[K]</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1573,6 +1907,24 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1592,8 +1944,10 @@
           <t>a0[m/s]</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mcj[-]</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1638,6 +1992,532 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISEvn</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>a0[m/s]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mcj[-]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tvn[K]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>γvn[-]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>avn[m/s]</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYvn</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>M0[kg/kmol]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>a0[m/s]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>avn[m/s]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISEvn</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>PRANDTLNUMBERvn</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>a0[m/s]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>avn[m/s]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISEvn</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYvn</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>VISCMILLIPOISECJ</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYCJ</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mcj[kg/kmol]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>acj[m/s]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Vcj[m/s]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CONDUCTIVITYvn</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>PRANDTLNUMBERCJ</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>0</v>
       </c>
     </row>
